--- a/MainTop/08.04.2025/всего3.xlsx
+++ b/MainTop/08.04.2025/всего3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\08.04.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC72E61-1AC5-4669-9369-9C877C5525D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02B92E2-2287-4A5D-91DA-3480397C43FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="326">
   <si>
     <t>Беларусь</t>
   </si>
@@ -745,84 +745,6 @@
     <t>в6</t>
   </si>
   <si>
-    <t>Термонаклейка Аниме девочка белые волосы уши кошки</t>
-  </si>
-  <si>
-    <t>т54</t>
-  </si>
-  <si>
-    <t>Термонаклейка Аниме девочка в цветах и фонарях</t>
-  </si>
-  <si>
-    <t>в1</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка Волосы Бабочки</t>
-  </si>
-  <si>
-    <t>т35</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка силует обнимают природа</t>
-  </si>
-  <si>
-    <t>у30</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кассета цветы Vintage Soul</t>
-  </si>
-  <si>
-    <t>т49</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кит в голубых и розовых оттенках</t>
-  </si>
-  <si>
-    <t>в21</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кот цветы внутри</t>
-  </si>
-  <si>
-    <t>т26</t>
-  </si>
-  <si>
-    <t>Термонаклейка Лошадь в золотых и мраморных тонах</t>
-  </si>
-  <si>
-    <t>в12</t>
-  </si>
-  <si>
-    <t>Термонаклейка Мопс Собачка попа секси</t>
-  </si>
-  <si>
-    <t>т71</t>
-  </si>
-  <si>
-    <t>Термонаклейка Сейлор Мун Sailor Moon радуется</t>
-  </si>
-  <si>
-    <t>т3</t>
-  </si>
-  <si>
-    <t>Термонаклейка Сердце леопардовое</t>
-  </si>
-  <si>
-    <t>т62</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Месяц Лотос</t>
-  </si>
-  <si>
-    <t>т2</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Розовые Ирис</t>
-  </si>
-  <si>
-    <t>т66</t>
-  </si>
-  <si>
     <t>Термонаклейка Дисней утка Дейзи Сердечко</t>
   </si>
   <si>
@@ -1030,96 +952,6 @@
     <t>д11</t>
   </si>
   <si>
-    <t>Термонаклейка Акула серфинг в очках</t>
-  </si>
-  <si>
-    <t>б39</t>
-  </si>
-  <si>
-    <t>Термонаклейка Балерина в сиреневом</t>
-  </si>
-  <si>
-    <t>д2</t>
-  </si>
-  <si>
-    <t>Термонаклейка Жирафвыглядывает замок одежды</t>
-  </si>
-  <si>
-    <t>б29</t>
-  </si>
-  <si>
-    <t>Термонаклейка Звезды Черные термозаплатка</t>
-  </si>
-  <si>
-    <t>б81</t>
-  </si>
-  <si>
-    <t>Термонаклейка Лисенок с кружкой</t>
-  </si>
-  <si>
-    <t>б14</t>
-  </si>
-  <si>
-    <t>Термонаклейка Марвел супергерои 4 верт фона</t>
-  </si>
-  <si>
-    <t>б4</t>
-  </si>
-  <si>
-    <t>Термонаклейка Миньон с бананами</t>
-  </si>
-  <si>
-    <t>б13</t>
-  </si>
-  <si>
-    <t>Термонаклейка Миньоны на банане</t>
-  </si>
-  <si>
-    <t>б20</t>
-  </si>
-  <si>
-    <t>Термонаклейка Мишка красная гоночная машина</t>
-  </si>
-  <si>
-    <t>б40</t>
-  </si>
-  <si>
-    <t>Термонаклейка Русалочка поправляет прическу</t>
-  </si>
-  <si>
-    <t>б10</t>
-  </si>
-  <si>
-    <t>Термонаклейка Собачка красный бантик</t>
-  </si>
-  <si>
-    <t>б12</t>
-  </si>
-  <si>
-    <t>Термонаклейка Формы термозаплатка</t>
-  </si>
-  <si>
-    <t>б80</t>
-  </si>
-  <si>
-    <t>Термонаклейка Человек Паук круг надпись снизу</t>
-  </si>
-  <si>
-    <t>б25</t>
-  </si>
-  <si>
-    <t>Термонаклейка Человек Паук синий белый круг</t>
-  </si>
-  <si>
-    <t>б18</t>
-  </si>
-  <si>
-    <t>Термонаклейка Щенячий патруль 2 Маршал Крепыш</t>
-  </si>
-  <si>
-    <t>б37</t>
-  </si>
-  <si>
     <t>Термонаклейка Кошка розово-фиолетовая крупный план</t>
   </si>
   <si>
@@ -1157,12 +989,6 @@
   </si>
   <si>
     <t>у21</t>
-  </si>
-  <si>
-    <t>Термонаклейка Мэрилин Монро геометрия</t>
-  </si>
-  <si>
-    <t>т67</t>
   </si>
   <si>
     <t>Термонаклейка Пантера рычит звезды розовый фон</t>
@@ -1512,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V182"/>
+  <dimension ref="A1:V153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="S139" sqref="S139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1352,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>325</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1591,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
@@ -1631,7 +1457,7 @@
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P33" si="0">SUM(B2:O2)</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="1">
         <v>0</v>
@@ -1644,7 +1470,7 @@
       </c>
       <c r="V2" s="1">
         <f>P2/2</f>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2365,25 +2191,25 @@
         <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
@@ -3447,25 +3273,25 @@
         <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="1">
         <v>1</v>
       </c>
       <c r="I31" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -3700,7 +3526,7 @@
         <v>85</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -3712,7 +3538,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -3895,10 +3721,10 @@
         <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
@@ -3907,19 +3733,19 @@
         <v>2</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="1">
         <v>1</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1">
         <v>0</v>
@@ -3928,14 +3754,14 @@
         <v>1</v>
       </c>
       <c r="N38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O38" s="1">
         <v>0</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q38" s="1">
         <v>0</v>
@@ -3948,7 +3774,7 @@
       </c>
       <c r="V38" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -3959,22 +3785,22 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="1">
         <v>1</v>
@@ -4090,13 +3916,13 @@
         <v>1</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -4105,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1">
         <v>0</v>
@@ -4285,34 +4111,34 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="1">
         <v>1</v>
       </c>
       <c r="N44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O44" s="1">
         <v>0</v>
@@ -4346,19 +4172,19 @@
         <v>1</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="1">
         <v>1</v>
@@ -4373,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N45" s="1">
         <v>0</v>
@@ -4404,50 +4230,50 @@
         <v>107</v>
       </c>
       <c r="B46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="1">
         <v>1</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="1">
         <v>1</v>
       </c>
       <c r="N46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P46" s="1">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q46" s="1">
         <v>0</v>
@@ -4460,7 +4286,7 @@
       </c>
       <c r="V46" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -4474,13 +4300,13 @@
         <v>1</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -4489,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L47" s="1">
         <v>0</v>
@@ -4504,14 +4330,14 @@
         <v>1</v>
       </c>
       <c r="N47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="1">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q47" s="1">
         <v>0</v>
@@ -4524,7 +4350,7 @@
       </c>
       <c r="V47" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -4538,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -4568,10 +4394,10 @@
         <v>1</v>
       </c>
       <c r="N48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P48" s="1">
         <f t="shared" si="2"/>
@@ -5803,7 +5629,7 @@
         <v>20</v>
       </c>
       <c r="V67" s="1">
-        <f t="shared" ref="V67:V125" si="4">P67/2</f>
+        <f t="shared" ref="V67:V112" si="4">P67/2</f>
         <v>6</v>
       </c>
     </row>
@@ -7774,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="P98" s="1">
-        <f t="shared" ref="P98:P129" si="5">SUM(B98:O98)</f>
+        <f t="shared" ref="P98:P116" si="5">SUM(B98:O98)</f>
         <v>2</v>
       </c>
       <c r="Q98" s="1">
@@ -8695,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
@@ -8713,19 +8539,19 @@
         <v>0</v>
       </c>
       <c r="I113" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J113" s="1">
         <v>0</v>
       </c>
       <c r="K113" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L113" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M113" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N113" s="1">
         <v>0</v>
@@ -8735,7 +8561,7 @@
       </c>
       <c r="P113" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q113" s="1">
         <v>0</v>
@@ -8744,162 +8570,162 @@
         <v>242</v>
       </c>
       <c r="S113" s="1" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="V113" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>P113/4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P114" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q114" s="1">
         <v>0</v>
       </c>
       <c r="R114" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S114" s="1" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="V114" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="V114:V146" si="6">P114/4</f>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B115" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C115" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I115" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J115" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K115" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P115" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q115" s="1">
         <v>0</v>
       </c>
       <c r="R115" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="S115" s="1" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="V115" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
       </c>
       <c r="G116" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H116" s="1">
         <v>0</v>
@@ -8914,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="L116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116" s="1">
         <v>0</v>
@@ -8927,52 +8753,52 @@
       </c>
       <c r="P116" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q116" s="1">
         <v>0</v>
       </c>
       <c r="R116" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S116" s="1" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="V116" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F117" s="1">
         <v>0</v>
       </c>
       <c r="G117" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" s="1">
         <v>0</v>
       </c>
       <c r="J117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117" s="1">
         <v>0</v>
@@ -8990,35 +8816,35 @@
         <v>0</v>
       </c>
       <c r="P117" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="P117:P146" si="7">SUM(B117:O117)</f>
+        <v>12</v>
       </c>
       <c r="Q117" s="1">
         <v>0</v>
       </c>
       <c r="R117" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S117" s="1" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="V117" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -9039,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L118" s="1">
         <v>0</v>
@@ -9048,44 +8874,44 @@
         <v>0</v>
       </c>
       <c r="N118" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O118" s="1">
         <v>0</v>
       </c>
       <c r="P118" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="Q118" s="1">
         <v>0</v>
       </c>
       <c r="R118" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S118" s="1" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="V118" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
@@ -9094,19 +8920,19 @@
         <v>0</v>
       </c>
       <c r="H119" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
       </c>
       <c r="J119" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K119" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L119" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M119" s="1">
         <v>0</v>
@@ -9118,38 +8944,38 @@
         <v>0</v>
       </c>
       <c r="P119" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="Q119" s="1">
         <v>0</v>
       </c>
       <c r="R119" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S119" s="1" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="V119" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" s="1">
         <v>0</v>
@@ -9158,16 +8984,16 @@
         <v>0</v>
       </c>
       <c r="H120" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120" s="1">
         <v>0</v>
       </c>
       <c r="J120" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K120" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L120" s="1">
         <v>0</v>
@@ -9179,32 +9005,32 @@
         <v>0</v>
       </c>
       <c r="O120" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P120" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="Q120" s="1">
         <v>0</v>
       </c>
       <c r="R120" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="S120" s="1" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="V120" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" s="1">
         <v>0</v>
@@ -9225,13 +9051,13 @@
         <v>0</v>
       </c>
       <c r="I121" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J121" s="1">
         <v>0</v>
       </c>
       <c r="K121" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L121" s="1">
         <v>0</v>
@@ -9246,32 +9072,32 @@
         <v>0</v>
       </c>
       <c r="P121" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="Q121" s="1">
         <v>0</v>
       </c>
       <c r="R121" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S121" s="1" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="V121" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
@@ -9295,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L122" s="1">
         <v>0</v>
@@ -9304,47 +9130,47 @@
         <v>0</v>
       </c>
       <c r="N122" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O122" s="1">
         <v>0</v>
       </c>
       <c r="P122" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="Q122" s="1">
         <v>0</v>
       </c>
       <c r="R122" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S122" s="1" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="V122" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="1">
         <v>0</v>
@@ -9359,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L123" s="1">
         <v>0</v>
@@ -9374,35 +9200,35 @@
         <v>0</v>
       </c>
       <c r="P123" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="Q123" s="1">
         <v>0</v>
       </c>
       <c r="R123" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="S123" s="1" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="V123" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E124" s="1">
         <v>0</v>
@@ -9411,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="G124" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H124" s="1">
         <v>0</v>
@@ -9438,38 +9264,38 @@
         <v>0</v>
       </c>
       <c r="P124" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="Q124" s="1">
         <v>0</v>
       </c>
       <c r="R124" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S124" s="1" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="V124" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -9487,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L125" s="1">
         <v>0</v>
@@ -9496,68 +9322,68 @@
         <v>0</v>
       </c>
       <c r="N125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O125" s="1">
         <v>0</v>
       </c>
       <c r="P125" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="Q125" s="1">
         <v>0</v>
       </c>
       <c r="R125" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S125" s="1" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="V125" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L126" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M126" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N126" s="1">
         <v>0</v>
@@ -9566,21 +9392,21 @@
         <v>0</v>
       </c>
       <c r="P126" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="Q126" s="1">
         <v>0</v>
       </c>
       <c r="R126" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="S126" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V126" s="1">
-        <f>P126/4</f>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
@@ -9597,16 +9423,16 @@
         <v>1</v>
       </c>
       <c r="E127" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F127" s="1">
         <v>1</v>
       </c>
       <c r="G127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" s="1">
         <v>1</v>
@@ -9615,23 +9441,23 @@
         <v>1</v>
       </c>
       <c r="K127" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P127" s="1">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="Q127" s="1">
         <v>0</v>
@@ -9640,11 +9466,11 @@
         <v>271</v>
       </c>
       <c r="S127" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V127" s="1">
-        <f t="shared" ref="V127:V174" si="6">P127/4</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
@@ -9652,50 +9478,50 @@
         <v>272</v>
       </c>
       <c r="B128" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J128" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K128" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P128" s="1">
-        <f t="shared" si="5"/>
-        <v>28</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="Q128" s="1">
         <v>0</v>
@@ -9704,11 +9530,11 @@
         <v>273</v>
       </c>
       <c r="S128" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V128" s="1">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.25">
@@ -9716,28 +9542,28 @@
         <v>274</v>
       </c>
       <c r="B129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F129" s="1">
         <v>0</v>
       </c>
       <c r="G129" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H129" s="1">
         <v>0</v>
       </c>
       <c r="I129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" s="1">
         <v>0</v>
@@ -9746,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="L129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M129" s="1">
         <v>0</v>
@@ -9758,8 +9584,8 @@
         <v>0</v>
       </c>
       <c r="P129" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="Q129" s="1">
         <v>0</v>
@@ -9768,11 +9594,11 @@
         <v>275</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V129" s="1">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.25">
@@ -9780,31 +9606,31 @@
         <v>276</v>
       </c>
       <c r="B130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
       </c>
       <c r="E130" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F130" s="1">
         <v>0</v>
       </c>
       <c r="G130" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H130" s="1">
         <v>1</v>
       </c>
       <c r="I130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" s="1">
         <v>0</v>
@@ -9822,8 +9648,8 @@
         <v>0</v>
       </c>
       <c r="P130" s="1">
-        <f t="shared" ref="P130:P161" si="7">SUM(B130:O130)</f>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="Q130" s="1">
         <v>0</v>
@@ -9832,11 +9658,11 @@
         <v>277</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V130" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.25">
@@ -9850,7 +9676,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" s="1">
         <v>0</v>
@@ -9859,35 +9685,35 @@
         <v>0</v>
       </c>
       <c r="G131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" s="1">
         <v>0</v>
       </c>
       <c r="N131" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O131" s="1">
         <v>0</v>
       </c>
       <c r="P131" s="1">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q131" s="1">
         <v>0</v>
@@ -9896,11 +9722,11 @@
         <v>279</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V131" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.25">
@@ -9911,13 +9737,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
@@ -9926,19 +9752,19 @@
         <v>0</v>
       </c>
       <c r="H132" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" s="1">
         <v>0</v>
       </c>
       <c r="J132" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K132" s="1">
         <v>3</v>
       </c>
       <c r="L132" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M132" s="1">
         <v>0</v>
@@ -9951,7 +9777,7 @@
       </c>
       <c r="P132" s="1">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q132" s="1">
         <v>0</v>
@@ -9960,11 +9786,11 @@
         <v>281</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V132" s="1">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.25">
@@ -9990,16 +9816,16 @@
         <v>0</v>
       </c>
       <c r="H133" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
       </c>
       <c r="J133" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K133" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L133" s="1">
         <v>0</v>
@@ -10011,11 +9837,11 @@
         <v>0</v>
       </c>
       <c r="O133" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P133" s="1">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q133" s="1">
         <v>0</v>
@@ -10024,11 +9850,11 @@
         <v>283</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V133" s="1">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.25">
@@ -10042,13 +9868,13 @@
         <v>0</v>
       </c>
       <c r="D134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" s="1">
         <v>0</v>
@@ -10057,13 +9883,13 @@
         <v>0</v>
       </c>
       <c r="I134" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J134" s="1">
         <v>0</v>
       </c>
       <c r="K134" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L134" s="1">
         <v>0</v>
@@ -10079,7 +9905,7 @@
       </c>
       <c r="P134" s="1">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q134" s="1">
         <v>0</v>
@@ -10088,11 +9914,11 @@
         <v>285</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V134" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.25">
@@ -10127,23 +9953,23 @@
         <v>0</v>
       </c>
       <c r="K135" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L135" s="1">
         <v>0</v>
       </c>
       <c r="M135" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N135" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O135" s="1">
         <v>0</v>
       </c>
       <c r="P135" s="1">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q135" s="1">
         <v>0</v>
@@ -10152,11 +9978,11 @@
         <v>287</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V135" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.25">
@@ -10170,13 +9996,13 @@
         <v>1</v>
       </c>
       <c r="D136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" s="1">
         <v>0</v>
@@ -10191,13 +10017,13 @@
         <v>0</v>
       </c>
       <c r="K136" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L136" s="1">
         <v>0</v>
       </c>
       <c r="M136" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N136" s="1">
         <v>0</v>
@@ -10207,7 +10033,7 @@
       </c>
       <c r="P136" s="1">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q136" s="1">
         <v>0</v>
@@ -10216,11 +10042,11 @@
         <v>289</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V136" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.25">
@@ -10234,25 +10060,25 @@
         <v>1</v>
       </c>
       <c r="D137" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" s="1">
         <v>0</v>
       </c>
       <c r="G137" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H137" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" s="1">
         <v>0</v>
       </c>
       <c r="J137" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K137" s="1">
         <v>0</v>
@@ -10280,7 +10106,7 @@
         <v>291</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V137" s="1">
         <f t="shared" si="6"/>
@@ -10298,10 +10124,10 @@
         <v>1</v>
       </c>
       <c r="D138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" s="1">
         <v>0</v>
@@ -10319,23 +10145,23 @@
         <v>0</v>
       </c>
       <c r="K138" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L138" s="1">
         <v>0</v>
       </c>
       <c r="M138" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O138" s="1">
         <v>0</v>
       </c>
       <c r="P138" s="1">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q138" s="1">
         <v>0</v>
@@ -10344,11 +10170,11 @@
         <v>293</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V138" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.25">
@@ -10362,10 +10188,10 @@
         <v>1</v>
       </c>
       <c r="D139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" s="1">
         <v>1</v>
@@ -10374,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="H139" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" s="1">
         <v>0</v>
       </c>
       <c r="J139" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K139" s="1">
         <v>0</v>
       </c>
       <c r="L139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M139" s="1">
         <v>0</v>
@@ -10395,11 +10221,11 @@
         <v>0</v>
       </c>
       <c r="O139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P139" s="1">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q139" s="1">
         <v>0</v>
@@ -10408,11 +10234,11 @@
         <v>295</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V139" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.25">
@@ -10447,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="K140" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L140" s="1">
         <v>0</v>
@@ -10459,11 +10285,11 @@
         <v>0</v>
       </c>
       <c r="O140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P140" s="1">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q140" s="1">
         <v>0</v>
@@ -10472,11 +10298,11 @@
         <v>297</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V140" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.25">
@@ -10484,13 +10310,13 @@
         <v>298</v>
       </c>
       <c r="B141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" s="1">
         <v>0</v>
@@ -10505,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J141" s="1">
         <v>0</v>
@@ -10523,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="O141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P141" s="1">
         <f t="shared" si="7"/>
@@ -10536,7 +10362,7 @@
         <v>299</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V141" s="1">
         <f t="shared" si="6"/>
@@ -10548,13 +10374,13 @@
         <v>300</v>
       </c>
       <c r="B142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" s="1">
         <v>0</v>
@@ -10600,7 +10426,7 @@
         <v>301</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V142" s="1">
         <f t="shared" si="6"/>
@@ -10612,22 +10438,22 @@
         <v>302</v>
       </c>
       <c r="B143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" s="1">
         <v>1</v>
       </c>
       <c r="E143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" s="1">
         <v>0</v>
       </c>
       <c r="G143" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H143" s="1">
         <v>0</v>
@@ -10664,7 +10490,7 @@
         <v>303</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V143" s="1">
         <f t="shared" si="6"/>
@@ -10682,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="D144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" s="1">
         <v>0</v>
@@ -10694,19 +10520,19 @@
         <v>0</v>
       </c>
       <c r="H144" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" s="1">
         <v>0</v>
       </c>
       <c r="J144" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K144" s="1">
         <v>0</v>
       </c>
       <c r="L144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" s="1">
         <v>0</v>
@@ -10719,7 +10545,7 @@
       </c>
       <c r="P144" s="1">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q144" s="1">
         <v>0</v>
@@ -10728,11 +10554,11 @@
         <v>305</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V144" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.25">
@@ -10743,10 +10569,10 @@
         <v>1</v>
       </c>
       <c r="C145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" s="1">
         <v>0</v>
@@ -10767,13 +10593,13 @@
         <v>0</v>
       </c>
       <c r="K145" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L145" s="1">
         <v>0</v>
       </c>
       <c r="M145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N145" s="1">
         <v>0</v>
@@ -10792,7 +10618,7 @@
         <v>307</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V145" s="1">
         <f t="shared" si="6"/>
@@ -10807,10 +10633,10 @@
         <v>1</v>
       </c>
       <c r="C146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E146" s="1">
         <v>0</v>
@@ -10825,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" s="1">
         <v>0</v>
@@ -10856,7 +10682,7 @@
         <v>309</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V146" s="1">
         <f t="shared" si="6"/>
@@ -10871,47 +10697,47 @@
         <v>1</v>
       </c>
       <c r="C147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P147" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" ref="P147:P153" si="8">SUM(B147:O147)</f>
+        <v>18</v>
       </c>
       <c r="Q147" s="1">
         <v>0</v>
@@ -10920,171 +10746,171 @@
         <v>311</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="V147" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>P147/2</f>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1">
+        <v>3</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0</v>
+      </c>
+      <c r="H148" s="1">
+        <v>4</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0</v>
+      </c>
+      <c r="J148" s="1">
+        <v>3</v>
+      </c>
+      <c r="K148" s="1">
+        <v>3</v>
+      </c>
+      <c r="L148" s="1">
+        <v>2</v>
+      </c>
+      <c r="M148" s="1">
+        <v>0</v>
+      </c>
+      <c r="N148" s="1">
+        <v>0</v>
+      </c>
+      <c r="O148" s="1">
+        <v>0</v>
+      </c>
+      <c r="P148" s="1">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="Q148" s="1">
+        <v>0</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S148" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B148" s="1">
-        <v>1</v>
-      </c>
-      <c r="C148" s="1">
-        <v>1</v>
-      </c>
-      <c r="D148" s="1">
-        <v>0</v>
-      </c>
-      <c r="E148" s="1">
-        <v>0</v>
-      </c>
-      <c r="F148" s="1">
-        <v>0</v>
-      </c>
-      <c r="G148" s="1">
-        <v>0</v>
-      </c>
-      <c r="H148" s="1">
-        <v>0</v>
-      </c>
-      <c r="I148" s="1">
-        <v>0</v>
-      </c>
-      <c r="J148" s="1">
-        <v>0</v>
-      </c>
-      <c r="K148" s="1">
-        <v>0</v>
-      </c>
-      <c r="L148" s="1">
-        <v>0</v>
-      </c>
-      <c r="M148" s="1">
-        <v>2</v>
-      </c>
-      <c r="N148" s="1">
-        <v>0</v>
-      </c>
-      <c r="O148" s="1">
-        <v>0</v>
-      </c>
-      <c r="P148" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q148" s="1">
-        <v>0</v>
-      </c>
-      <c r="R148" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="S148" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="V148" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" ref="V148:V153" si="9">P148/2</f>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P149" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
       <c r="Q149" s="1">
         <v>0</v>
       </c>
       <c r="R149" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="V149" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" s="1">
         <v>0</v>
       </c>
       <c r="G150" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H150" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J150" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K150" s="1">
         <v>0</v>
@@ -11093,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="M150" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N150" s="1">
         <v>0</v>
@@ -11102,32 +10928,32 @@
         <v>0</v>
       </c>
       <c r="P150" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="Q150" s="1">
         <v>0</v>
       </c>
       <c r="R150" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="V150" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B151" s="1">
         <v>1</v>
       </c>
       <c r="C151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" s="1">
         <v>0</v>
@@ -11139,25 +10965,25 @@
         <v>0</v>
       </c>
       <c r="G151" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" s="1">
         <v>0</v>
       </c>
       <c r="L151" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M151" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N151" s="1">
         <v>0</v>
@@ -11166,26 +10992,26 @@
         <v>0</v>
       </c>
       <c r="P151" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="Q151" s="1">
         <v>0</v>
       </c>
       <c r="R151" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="V151" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B152" s="1">
         <v>1</v>
@@ -11200,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="F152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152" s="1">
         <v>0</v>
@@ -11209,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J152" s="1">
         <v>0</v>
@@ -11221,35 +11047,35 @@
         <v>0</v>
       </c>
       <c r="M152" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N152" s="1">
         <v>0</v>
       </c>
       <c r="O152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P152" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="Q152" s="1">
         <v>0</v>
       </c>
       <c r="R152" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="V152" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B153" s="1">
         <v>1</v>
@@ -11258,7 +11084,7 @@
         <v>1</v>
       </c>
       <c r="D153" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153" s="1">
         <v>0</v>
@@ -11273,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" s="1">
         <v>0</v>
@@ -11285,1886 +11111,30 @@
         <v>0</v>
       </c>
       <c r="M153" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N153" s="1">
         <v>0</v>
       </c>
       <c r="O153" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P153" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q153" s="1">
-        <v>0</v>
-      </c>
-      <c r="R153" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="S153" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V153" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B154" s="1">
-        <v>1</v>
-      </c>
-      <c r="C154" s="1">
-        <v>1</v>
-      </c>
-      <c r="D154" s="1">
-        <v>1</v>
-      </c>
-      <c r="E154" s="1">
-        <v>0</v>
-      </c>
-      <c r="F154" s="1">
-        <v>0</v>
-      </c>
-      <c r="G154" s="1">
-        <v>0</v>
-      </c>
-      <c r="H154" s="1">
-        <v>0</v>
-      </c>
-      <c r="I154" s="1">
-        <v>0</v>
-      </c>
-      <c r="J154" s="1">
-        <v>0</v>
-      </c>
-      <c r="K154" s="1">
-        <v>0</v>
-      </c>
-      <c r="L154" s="1">
-        <v>0</v>
-      </c>
-      <c r="M154" s="1">
-        <v>0</v>
-      </c>
-      <c r="N154" s="1">
-        <v>0</v>
-      </c>
-      <c r="O154" s="1">
-        <v>1</v>
-      </c>
-      <c r="P154" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q154" s="1">
-        <v>0</v>
-      </c>
-      <c r="R154" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="S154" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V154" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B155" s="1">
-        <v>1</v>
-      </c>
-      <c r="C155" s="1">
-        <v>1</v>
-      </c>
-      <c r="D155" s="1">
-        <v>1</v>
-      </c>
-      <c r="E155" s="1">
-        <v>0</v>
-      </c>
-      <c r="F155" s="1">
-        <v>0</v>
-      </c>
-      <c r="G155" s="1">
-        <v>0</v>
-      </c>
-      <c r="H155" s="1">
-        <v>0</v>
-      </c>
-      <c r="I155" s="1">
-        <v>1</v>
-      </c>
-      <c r="J155" s="1">
-        <v>0</v>
-      </c>
-      <c r="K155" s="1">
-        <v>0</v>
-      </c>
-      <c r="L155" s="1">
-        <v>0</v>
-      </c>
-      <c r="M155" s="1">
-        <v>0</v>
-      </c>
-      <c r="N155" s="1">
-        <v>0</v>
-      </c>
-      <c r="O155" s="1">
-        <v>0</v>
-      </c>
-      <c r="P155" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q155" s="1">
-        <v>0</v>
-      </c>
-      <c r="R155" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="S155" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V155" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B156" s="1">
-        <v>1</v>
-      </c>
-      <c r="C156" s="1">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1">
-        <v>1</v>
-      </c>
-      <c r="E156" s="1">
-        <v>1</v>
-      </c>
-      <c r="F156" s="1">
-        <v>0</v>
-      </c>
-      <c r="G156" s="1">
-        <v>0</v>
-      </c>
-      <c r="H156" s="1">
-        <v>0</v>
-      </c>
-      <c r="I156" s="1">
-        <v>0</v>
-      </c>
-      <c r="J156" s="1">
-        <v>0</v>
-      </c>
-      <c r="K156" s="1">
-        <v>0</v>
-      </c>
-      <c r="L156" s="1">
-        <v>0</v>
-      </c>
-      <c r="M156" s="1">
-        <v>0</v>
-      </c>
-      <c r="N156" s="1">
-        <v>0</v>
-      </c>
-      <c r="O156" s="1">
-        <v>0</v>
-      </c>
-      <c r="P156" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q156" s="1">
-        <v>0</v>
-      </c>
-      <c r="R156" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="S156" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V156" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B157" s="1">
-        <v>1</v>
-      </c>
-      <c r="C157" s="1">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1">
-        <v>1</v>
-      </c>
-      <c r="E157" s="1">
-        <v>0</v>
-      </c>
-      <c r="F157" s="1">
-        <v>0</v>
-      </c>
-      <c r="G157" s="1">
-        <v>0</v>
-      </c>
-      <c r="H157" s="1">
-        <v>0</v>
-      </c>
-      <c r="I157" s="1">
-        <v>0</v>
-      </c>
-      <c r="J157" s="1">
-        <v>0</v>
-      </c>
-      <c r="K157" s="1">
-        <v>0</v>
-      </c>
-      <c r="L157" s="1">
-        <v>1</v>
-      </c>
-      <c r="M157" s="1">
-        <v>0</v>
-      </c>
-      <c r="N157" s="1">
-        <v>0</v>
-      </c>
-      <c r="O157" s="1">
-        <v>0</v>
-      </c>
-      <c r="P157" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q157" s="1">
-        <v>0</v>
-      </c>
-      <c r="R157" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="S157" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V157" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B158" s="1">
-        <v>1</v>
-      </c>
-      <c r="C158" s="1">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1">
-        <v>1</v>
-      </c>
-      <c r="E158" s="1">
-        <v>0</v>
-      </c>
-      <c r="F158" s="1">
-        <v>0</v>
-      </c>
-      <c r="G158" s="1">
-        <v>0</v>
-      </c>
-      <c r="H158" s="1">
-        <v>0</v>
-      </c>
-      <c r="I158" s="1">
-        <v>0</v>
-      </c>
-      <c r="J158" s="1">
-        <v>0</v>
-      </c>
-      <c r="K158" s="1">
-        <v>0</v>
-      </c>
-      <c r="L158" s="1">
-        <v>0</v>
-      </c>
-      <c r="M158" s="1">
-        <v>1</v>
-      </c>
-      <c r="N158" s="1">
-        <v>0</v>
-      </c>
-      <c r="O158" s="1">
-        <v>0</v>
-      </c>
-      <c r="P158" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q158" s="1">
-        <v>0</v>
-      </c>
-      <c r="R158" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="S158" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V158" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B159" s="1">
-        <v>1</v>
-      </c>
-      <c r="C159" s="1">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1">
-        <v>1</v>
-      </c>
-      <c r="E159" s="1">
-        <v>0</v>
-      </c>
-      <c r="F159" s="1">
-        <v>0</v>
-      </c>
-      <c r="G159" s="1">
-        <v>0</v>
-      </c>
-      <c r="H159" s="1">
-        <v>0</v>
-      </c>
-      <c r="I159" s="1">
-        <v>1</v>
-      </c>
-      <c r="J159" s="1">
-        <v>0</v>
-      </c>
-      <c r="K159" s="1">
-        <v>0</v>
-      </c>
-      <c r="L159" s="1">
-        <v>0</v>
-      </c>
-      <c r="M159" s="1">
-        <v>0</v>
-      </c>
-      <c r="N159" s="1">
-        <v>0</v>
-      </c>
-      <c r="O159" s="1">
-        <v>0</v>
-      </c>
-      <c r="P159" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q159" s="1">
-        <v>0</v>
-      </c>
-      <c r="R159" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="S159" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V159" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B160" s="1">
-        <v>0</v>
-      </c>
-      <c r="C160" s="1">
-        <v>0</v>
-      </c>
-      <c r="D160" s="1">
-        <v>0</v>
-      </c>
-      <c r="E160" s="1">
-        <v>0</v>
-      </c>
-      <c r="F160" s="1">
-        <v>0</v>
-      </c>
-      <c r="G160" s="1">
-        <v>0</v>
-      </c>
-      <c r="H160" s="1">
-        <v>0</v>
-      </c>
-      <c r="I160" s="1">
-        <v>0</v>
-      </c>
-      <c r="J160" s="1">
-        <v>0</v>
-      </c>
-      <c r="K160" s="1">
-        <v>0</v>
-      </c>
-      <c r="L160" s="1">
-        <v>0</v>
-      </c>
-      <c r="M160" s="1">
-        <v>0</v>
-      </c>
-      <c r="N160" s="1">
-        <v>0</v>
-      </c>
-      <c r="O160" s="1">
-        <v>0</v>
-      </c>
-      <c r="P160" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q160" s="1">
-        <v>0</v>
-      </c>
-      <c r="R160" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="S160" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V160" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B161" s="1">
-        <v>0</v>
-      </c>
-      <c r="C161" s="1">
-        <v>0</v>
-      </c>
-      <c r="D161" s="1">
-        <v>0</v>
-      </c>
-      <c r="E161" s="1">
-        <v>0</v>
-      </c>
-      <c r="F161" s="1">
-        <v>0</v>
-      </c>
-      <c r="G161" s="1">
-        <v>0</v>
-      </c>
-      <c r="H161" s="1">
-        <v>0</v>
-      </c>
-      <c r="I161" s="1">
-        <v>0</v>
-      </c>
-      <c r="J161" s="1">
-        <v>0</v>
-      </c>
-      <c r="K161" s="1">
-        <v>0</v>
-      </c>
-      <c r="L161" s="1">
-        <v>0</v>
-      </c>
-      <c r="M161" s="1">
-        <v>0</v>
-      </c>
-      <c r="N161" s="1">
-        <v>0</v>
-      </c>
-      <c r="O161" s="1">
-        <v>0</v>
-      </c>
-      <c r="P161" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q161" s="1">
-        <v>0</v>
-      </c>
-      <c r="R161" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="S161" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V161" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B162" s="1">
-        <v>0</v>
-      </c>
-      <c r="C162" s="1">
-        <v>0</v>
-      </c>
-      <c r="D162" s="1">
-        <v>0</v>
-      </c>
-      <c r="E162" s="1">
-        <v>0</v>
-      </c>
-      <c r="F162" s="1">
-        <v>0</v>
-      </c>
-      <c r="G162" s="1">
-        <v>0</v>
-      </c>
-      <c r="H162" s="1">
-        <v>0</v>
-      </c>
-      <c r="I162" s="1">
-        <v>0</v>
-      </c>
-      <c r="J162" s="1">
-        <v>0</v>
-      </c>
-      <c r="K162" s="1">
-        <v>0</v>
-      </c>
-      <c r="L162" s="1">
-        <v>0</v>
-      </c>
-      <c r="M162" s="1">
-        <v>0</v>
-      </c>
-      <c r="N162" s="1">
-        <v>0</v>
-      </c>
-      <c r="O162" s="1">
-        <v>0</v>
-      </c>
-      <c r="P162" s="1">
-        <f t="shared" ref="P162:P182" si="8">SUM(B162:O162)</f>
-        <v>0</v>
-      </c>
-      <c r="Q162" s="1">
-        <v>0</v>
-      </c>
-      <c r="R162" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="S162" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V162" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B163" s="1">
-        <v>0</v>
-      </c>
-      <c r="C163" s="1">
-        <v>0</v>
-      </c>
-      <c r="D163" s="1">
-        <v>0</v>
-      </c>
-      <c r="E163" s="1">
-        <v>0</v>
-      </c>
-      <c r="F163" s="1">
-        <v>0</v>
-      </c>
-      <c r="G163" s="1">
-        <v>0</v>
-      </c>
-      <c r="H163" s="1">
-        <v>0</v>
-      </c>
-      <c r="I163" s="1">
-        <v>0</v>
-      </c>
-      <c r="J163" s="1">
-        <v>0</v>
-      </c>
-      <c r="K163" s="1">
-        <v>0</v>
-      </c>
-      <c r="L163" s="1">
-        <v>0</v>
-      </c>
-      <c r="M163" s="1">
-        <v>0</v>
-      </c>
-      <c r="N163" s="1">
-        <v>0</v>
-      </c>
-      <c r="O163" s="1">
-        <v>0</v>
-      </c>
-      <c r="P163" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q163" s="1">
-        <v>0</v>
-      </c>
-      <c r="R163" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="S163" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V163" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B164" s="1">
-        <v>0</v>
-      </c>
-      <c r="C164" s="1">
-        <v>0</v>
-      </c>
-      <c r="D164" s="1">
-        <v>0</v>
-      </c>
-      <c r="E164" s="1">
-        <v>0</v>
-      </c>
-      <c r="F164" s="1">
-        <v>0</v>
-      </c>
-      <c r="G164" s="1">
-        <v>0</v>
-      </c>
-      <c r="H164" s="1">
-        <v>0</v>
-      </c>
-      <c r="I164" s="1">
-        <v>0</v>
-      </c>
-      <c r="J164" s="1">
-        <v>0</v>
-      </c>
-      <c r="K164" s="1">
-        <v>0</v>
-      </c>
-      <c r="L164" s="1">
-        <v>0</v>
-      </c>
-      <c r="M164" s="1">
-        <v>0</v>
-      </c>
-      <c r="N164" s="1">
-        <v>0</v>
-      </c>
-      <c r="O164" s="1">
-        <v>0</v>
-      </c>
-      <c r="P164" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q164" s="1">
-        <v>0</v>
-      </c>
-      <c r="R164" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="S164" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V164" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B165" s="1">
-        <v>0</v>
-      </c>
-      <c r="C165" s="1">
-        <v>0</v>
-      </c>
-      <c r="D165" s="1">
-        <v>0</v>
-      </c>
-      <c r="E165" s="1">
-        <v>0</v>
-      </c>
-      <c r="F165" s="1">
-        <v>0</v>
-      </c>
-      <c r="G165" s="1">
-        <v>0</v>
-      </c>
-      <c r="H165" s="1">
-        <v>0</v>
-      </c>
-      <c r="I165" s="1">
-        <v>0</v>
-      </c>
-      <c r="J165" s="1">
-        <v>0</v>
-      </c>
-      <c r="K165" s="1">
-        <v>0</v>
-      </c>
-      <c r="L165" s="1">
-        <v>0</v>
-      </c>
-      <c r="M165" s="1">
-        <v>0</v>
-      </c>
-      <c r="N165" s="1">
-        <v>0</v>
-      </c>
-      <c r="O165" s="1">
-        <v>0</v>
-      </c>
-      <c r="P165" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q165" s="1">
-        <v>0</v>
-      </c>
-      <c r="R165" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="S165" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V165" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B166" s="1">
-        <v>0</v>
-      </c>
-      <c r="C166" s="1">
-        <v>0</v>
-      </c>
-      <c r="D166" s="1">
-        <v>0</v>
-      </c>
-      <c r="E166" s="1">
-        <v>0</v>
-      </c>
-      <c r="F166" s="1">
-        <v>0</v>
-      </c>
-      <c r="G166" s="1">
-        <v>0</v>
-      </c>
-      <c r="H166" s="1">
-        <v>0</v>
-      </c>
-      <c r="I166" s="1">
-        <v>0</v>
-      </c>
-      <c r="J166" s="1">
-        <v>0</v>
-      </c>
-      <c r="K166" s="1">
-        <v>0</v>
-      </c>
-      <c r="L166" s="1">
-        <v>0</v>
-      </c>
-      <c r="M166" s="1">
-        <v>0</v>
-      </c>
-      <c r="N166" s="1">
-        <v>0</v>
-      </c>
-      <c r="O166" s="1">
-        <v>0</v>
-      </c>
-      <c r="P166" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q166" s="1">
-        <v>0</v>
-      </c>
-      <c r="R166" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="S166" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V166" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B167" s="1">
-        <v>0</v>
-      </c>
-      <c r="C167" s="1">
-        <v>0</v>
-      </c>
-      <c r="D167" s="1">
-        <v>0</v>
-      </c>
-      <c r="E167" s="1">
-        <v>0</v>
-      </c>
-      <c r="F167" s="1">
-        <v>0</v>
-      </c>
-      <c r="G167" s="1">
-        <v>0</v>
-      </c>
-      <c r="H167" s="1">
-        <v>0</v>
-      </c>
-      <c r="I167" s="1">
-        <v>0</v>
-      </c>
-      <c r="J167" s="1">
-        <v>0</v>
-      </c>
-      <c r="K167" s="1">
-        <v>0</v>
-      </c>
-      <c r="L167" s="1">
-        <v>0</v>
-      </c>
-      <c r="M167" s="1">
-        <v>0</v>
-      </c>
-      <c r="N167" s="1">
-        <v>0</v>
-      </c>
-      <c r="O167" s="1">
-        <v>0</v>
-      </c>
-      <c r="P167" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q167" s="1">
-        <v>0</v>
-      </c>
-      <c r="R167" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="S167" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V167" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B168" s="1">
-        <v>0</v>
-      </c>
-      <c r="C168" s="1">
-        <v>0</v>
-      </c>
-      <c r="D168" s="1">
-        <v>0</v>
-      </c>
-      <c r="E168" s="1">
-        <v>0</v>
-      </c>
-      <c r="F168" s="1">
-        <v>0</v>
-      </c>
-      <c r="G168" s="1">
-        <v>0</v>
-      </c>
-      <c r="H168" s="1">
-        <v>0</v>
-      </c>
-      <c r="I168" s="1">
-        <v>0</v>
-      </c>
-      <c r="J168" s="1">
-        <v>0</v>
-      </c>
-      <c r="K168" s="1">
-        <v>0</v>
-      </c>
-      <c r="L168" s="1">
-        <v>0</v>
-      </c>
-      <c r="M168" s="1">
-        <v>0</v>
-      </c>
-      <c r="N168" s="1">
-        <v>0</v>
-      </c>
-      <c r="O168" s="1">
-        <v>0</v>
-      </c>
-      <c r="P168" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q168" s="1">
-        <v>0</v>
-      </c>
-      <c r="R168" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="S168" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V168" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B169" s="1">
-        <v>0</v>
-      </c>
-      <c r="C169" s="1">
-        <v>0</v>
-      </c>
-      <c r="D169" s="1">
-        <v>0</v>
-      </c>
-      <c r="E169" s="1">
-        <v>0</v>
-      </c>
-      <c r="F169" s="1">
-        <v>0</v>
-      </c>
-      <c r="G169" s="1">
-        <v>0</v>
-      </c>
-      <c r="H169" s="1">
-        <v>0</v>
-      </c>
-      <c r="I169" s="1">
-        <v>0</v>
-      </c>
-      <c r="J169" s="1">
-        <v>0</v>
-      </c>
-      <c r="K169" s="1">
-        <v>0</v>
-      </c>
-      <c r="L169" s="1">
-        <v>0</v>
-      </c>
-      <c r="M169" s="1">
-        <v>0</v>
-      </c>
-      <c r="N169" s="1">
-        <v>0</v>
-      </c>
-      <c r="O169" s="1">
-        <v>0</v>
-      </c>
-      <c r="P169" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q169" s="1">
-        <v>0</v>
-      </c>
-      <c r="R169" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="S169" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V169" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B170" s="1">
-        <v>0</v>
-      </c>
-      <c r="C170" s="1">
-        <v>0</v>
-      </c>
-      <c r="D170" s="1">
-        <v>0</v>
-      </c>
-      <c r="E170" s="1">
-        <v>0</v>
-      </c>
-      <c r="F170" s="1">
-        <v>0</v>
-      </c>
-      <c r="G170" s="1">
-        <v>0</v>
-      </c>
-      <c r="H170" s="1">
-        <v>0</v>
-      </c>
-      <c r="I170" s="1">
-        <v>0</v>
-      </c>
-      <c r="J170" s="1">
-        <v>0</v>
-      </c>
-      <c r="K170" s="1">
-        <v>0</v>
-      </c>
-      <c r="L170" s="1">
-        <v>0</v>
-      </c>
-      <c r="M170" s="1">
-        <v>0</v>
-      </c>
-      <c r="N170" s="1">
-        <v>0</v>
-      </c>
-      <c r="O170" s="1">
-        <v>0</v>
-      </c>
-      <c r="P170" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q170" s="1">
-        <v>0</v>
-      </c>
-      <c r="R170" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="S170" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V170" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B171" s="1">
-        <v>0</v>
-      </c>
-      <c r="C171" s="1">
-        <v>0</v>
-      </c>
-      <c r="D171" s="1">
-        <v>0</v>
-      </c>
-      <c r="E171" s="1">
-        <v>0</v>
-      </c>
-      <c r="F171" s="1">
-        <v>0</v>
-      </c>
-      <c r="G171" s="1">
-        <v>0</v>
-      </c>
-      <c r="H171" s="1">
-        <v>0</v>
-      </c>
-      <c r="I171" s="1">
-        <v>0</v>
-      </c>
-      <c r="J171" s="1">
-        <v>0</v>
-      </c>
-      <c r="K171" s="1">
-        <v>0</v>
-      </c>
-      <c r="L171" s="1">
-        <v>0</v>
-      </c>
-      <c r="M171" s="1">
-        <v>0</v>
-      </c>
-      <c r="N171" s="1">
-        <v>0</v>
-      </c>
-      <c r="O171" s="1">
-        <v>0</v>
-      </c>
-      <c r="P171" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q171" s="1">
-        <v>0</v>
-      </c>
-      <c r="R171" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="S171" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V171" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B172" s="1">
-        <v>0</v>
-      </c>
-      <c r="C172" s="1">
-        <v>0</v>
-      </c>
-      <c r="D172" s="1">
-        <v>0</v>
-      </c>
-      <c r="E172" s="1">
-        <v>0</v>
-      </c>
-      <c r="F172" s="1">
-        <v>0</v>
-      </c>
-      <c r="G172" s="1">
-        <v>0</v>
-      </c>
-      <c r="H172" s="1">
-        <v>0</v>
-      </c>
-      <c r="I172" s="1">
-        <v>0</v>
-      </c>
-      <c r="J172" s="1">
-        <v>0</v>
-      </c>
-      <c r="K172" s="1">
-        <v>0</v>
-      </c>
-      <c r="L172" s="1">
-        <v>0</v>
-      </c>
-      <c r="M172" s="1">
-        <v>0</v>
-      </c>
-      <c r="N172" s="1">
-        <v>0</v>
-      </c>
-      <c r="O172" s="1">
-        <v>0</v>
-      </c>
-      <c r="P172" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q172" s="1">
-        <v>0</v>
-      </c>
-      <c r="R172" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="S172" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V172" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B173" s="1">
-        <v>0</v>
-      </c>
-      <c r="C173" s="1">
-        <v>0</v>
-      </c>
-      <c r="D173" s="1">
-        <v>0</v>
-      </c>
-      <c r="E173" s="1">
-        <v>0</v>
-      </c>
-      <c r="F173" s="1">
-        <v>0</v>
-      </c>
-      <c r="G173" s="1">
-        <v>0</v>
-      </c>
-      <c r="H173" s="1">
-        <v>0</v>
-      </c>
-      <c r="I173" s="1">
-        <v>0</v>
-      </c>
-      <c r="J173" s="1">
-        <v>0</v>
-      </c>
-      <c r="K173" s="1">
-        <v>0</v>
-      </c>
-      <c r="L173" s="1">
-        <v>0</v>
-      </c>
-      <c r="M173" s="1">
-        <v>0</v>
-      </c>
-      <c r="N173" s="1">
-        <v>0</v>
-      </c>
-      <c r="O173" s="1">
-        <v>0</v>
-      </c>
-      <c r="P173" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q173" s="1">
-        <v>0</v>
-      </c>
-      <c r="R173" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="S173" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V173" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B174" s="1">
-        <v>0</v>
-      </c>
-      <c r="C174" s="1">
-        <v>0</v>
-      </c>
-      <c r="D174" s="1">
-        <v>0</v>
-      </c>
-      <c r="E174" s="1">
-        <v>0</v>
-      </c>
-      <c r="F174" s="1">
-        <v>0</v>
-      </c>
-      <c r="G174" s="1">
-        <v>0</v>
-      </c>
-      <c r="H174" s="1">
-        <v>0</v>
-      </c>
-      <c r="I174" s="1">
-        <v>0</v>
-      </c>
-      <c r="J174" s="1">
-        <v>0</v>
-      </c>
-      <c r="K174" s="1">
-        <v>0</v>
-      </c>
-      <c r="L174" s="1">
-        <v>0</v>
-      </c>
-      <c r="M174" s="1">
-        <v>0</v>
-      </c>
-      <c r="N174" s="1">
-        <v>0</v>
-      </c>
-      <c r="O174" s="1">
-        <v>0</v>
-      </c>
-      <c r="P174" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q174" s="1">
-        <v>0</v>
-      </c>
-      <c r="R174" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="S174" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V174" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B175" s="1">
-        <v>1</v>
-      </c>
-      <c r="C175" s="1">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1">
-        <v>1</v>
-      </c>
-      <c r="E175" s="1">
-        <v>1</v>
-      </c>
-      <c r="F175" s="1">
-        <v>1</v>
-      </c>
-      <c r="G175" s="1">
-        <v>1</v>
-      </c>
-      <c r="H175" s="1">
-        <v>1</v>
-      </c>
-      <c r="I175" s="1">
-        <v>5</v>
-      </c>
-      <c r="J175" s="1">
-        <v>1</v>
-      </c>
-      <c r="K175" s="1">
-        <v>1</v>
-      </c>
-      <c r="L175" s="1">
-        <v>1</v>
-      </c>
-      <c r="M175" s="1">
-        <v>1</v>
-      </c>
-      <c r="N175" s="1">
-        <v>1</v>
-      </c>
-      <c r="O175" s="1">
-        <v>1</v>
-      </c>
-      <c r="P175" s="1">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="Q175" s="1">
-        <v>0</v>
-      </c>
-      <c r="R175" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="S175" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="V175" s="1">
-        <f>P175/2</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B176" s="1">
-        <v>1</v>
-      </c>
-      <c r="C176" s="1">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1">
-        <v>0</v>
-      </c>
-      <c r="E176" s="1">
-        <v>1</v>
-      </c>
-      <c r="F176" s="1">
-        <v>3</v>
-      </c>
-      <c r="G176" s="1">
-        <v>0</v>
-      </c>
-      <c r="H176" s="1">
-        <v>4</v>
-      </c>
-      <c r="I176" s="1">
-        <v>0</v>
-      </c>
-      <c r="J176" s="1">
-        <v>3</v>
-      </c>
-      <c r="K176" s="1">
-        <v>3</v>
-      </c>
-      <c r="L176" s="1">
-        <v>2</v>
-      </c>
-      <c r="M176" s="1">
-        <v>0</v>
-      </c>
-      <c r="N176" s="1">
-        <v>0</v>
-      </c>
-      <c r="O176" s="1">
-        <v>0</v>
-      </c>
-      <c r="P176" s="1">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="Q176" s="1">
-        <v>0</v>
-      </c>
-      <c r="R176" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="S176" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="V176" s="1">
-        <f t="shared" ref="V176:V182" si="9">P176/2</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B177" s="1">
-        <v>0</v>
-      </c>
-      <c r="C177" s="1">
-        <v>0</v>
-      </c>
-      <c r="D177" s="1">
-        <v>0</v>
-      </c>
-      <c r="E177" s="1">
-        <v>0</v>
-      </c>
-      <c r="F177" s="1">
-        <v>0</v>
-      </c>
-      <c r="G177" s="1">
-        <v>4</v>
-      </c>
-      <c r="H177" s="1">
-        <v>0</v>
-      </c>
-      <c r="I177" s="1">
-        <v>4</v>
-      </c>
-      <c r="J177" s="1">
-        <v>0</v>
-      </c>
-      <c r="K177" s="1">
-        <v>0</v>
-      </c>
-      <c r="L177" s="1">
-        <v>4</v>
-      </c>
-      <c r="M177" s="1">
-        <v>0</v>
-      </c>
-      <c r="N177" s="1">
-        <v>0</v>
-      </c>
-      <c r="O177" s="1">
-        <v>0</v>
-      </c>
-      <c r="P177" s="1">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="Q177" s="1">
-        <v>0</v>
-      </c>
-      <c r="R177" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="S177" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="V177" s="1">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B178" s="1">
-        <v>0</v>
-      </c>
-      <c r="C178" s="1">
-        <v>0</v>
-      </c>
-      <c r="D178" s="1">
-        <v>0</v>
-      </c>
-      <c r="E178" s="1">
-        <v>0</v>
-      </c>
-      <c r="F178" s="1">
-        <v>0</v>
-      </c>
-      <c r="G178" s="1">
-        <v>3</v>
-      </c>
-      <c r="H178" s="1">
-        <v>0</v>
-      </c>
-      <c r="I178" s="1">
-        <v>2</v>
-      </c>
-      <c r="J178" s="1">
-        <v>0</v>
-      </c>
-      <c r="K178" s="1">
-        <v>0</v>
-      </c>
-      <c r="L178" s="1">
-        <v>0</v>
-      </c>
-      <c r="M178" s="1">
-        <v>3</v>
-      </c>
-      <c r="N178" s="1">
-        <v>0</v>
-      </c>
-      <c r="O178" s="1">
-        <v>0</v>
-      </c>
-      <c r="P178" s="1">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="Q178" s="1">
-        <v>0</v>
-      </c>
-      <c r="R178" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="S178" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="V178" s="1">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B179" s="1">
-        <v>1</v>
-      </c>
-      <c r="C179" s="1">
-        <v>0</v>
-      </c>
-      <c r="D179" s="1">
-        <v>0</v>
-      </c>
-      <c r="E179" s="1">
-        <v>0</v>
-      </c>
-      <c r="F179" s="1">
-        <v>0</v>
-      </c>
-      <c r="G179" s="1">
-        <v>3</v>
-      </c>
-      <c r="H179" s="1">
-        <v>0</v>
-      </c>
-      <c r="I179" s="1">
-        <v>0</v>
-      </c>
-      <c r="J179" s="1">
-        <v>0</v>
-      </c>
-      <c r="K179" s="1">
-        <v>0</v>
-      </c>
-      <c r="L179" s="1">
-        <v>2</v>
-      </c>
-      <c r="M179" s="1">
-        <v>0</v>
-      </c>
-      <c r="N179" s="1">
-        <v>0</v>
-      </c>
-      <c r="O179" s="1">
-        <v>0</v>
-      </c>
-      <c r="P179" s="1">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Q179" s="1">
-        <v>0</v>
-      </c>
-      <c r="R179" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="S179" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="V179" s="1">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B180" s="1">
-        <v>1</v>
-      </c>
-      <c r="C180" s="1">
-        <v>0</v>
-      </c>
-      <c r="D180" s="1">
-        <v>0</v>
-      </c>
-      <c r="E180" s="1">
-        <v>0</v>
-      </c>
-      <c r="F180" s="1">
-        <v>0</v>
-      </c>
-      <c r="G180" s="1">
-        <v>0</v>
-      </c>
-      <c r="H180" s="1">
-        <v>0</v>
-      </c>
-      <c r="I180" s="1">
-        <v>3</v>
-      </c>
-      <c r="J180" s="1">
-        <v>0</v>
-      </c>
-      <c r="K180" s="1">
-        <v>0</v>
-      </c>
-      <c r="L180" s="1">
-        <v>0</v>
-      </c>
-      <c r="M180" s="1">
-        <v>0</v>
-      </c>
-      <c r="N180" s="1">
-        <v>0</v>
-      </c>
-      <c r="O180" s="1">
-        <v>0</v>
-      </c>
-      <c r="P180" s="1">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="Q180" s="1">
-        <v>0</v>
-      </c>
-      <c r="R180" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="S180" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="V180" s="1">
+      <c r="Q153" s="1">
+        <v>0</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="V153" s="1">
         <f t="shared" si="9"/>
         <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B181" s="1">
-        <v>0</v>
-      </c>
-      <c r="C181" s="1">
-        <v>0</v>
-      </c>
-      <c r="D181" s="1">
-        <v>0</v>
-      </c>
-      <c r="E181" s="1">
-        <v>0</v>
-      </c>
-      <c r="F181" s="1">
-        <v>0</v>
-      </c>
-      <c r="G181" s="1">
-        <v>0</v>
-      </c>
-      <c r="H181" s="1">
-        <v>0</v>
-      </c>
-      <c r="I181" s="1">
-        <v>0</v>
-      </c>
-      <c r="J181" s="1">
-        <v>0</v>
-      </c>
-      <c r="K181" s="1">
-        <v>0</v>
-      </c>
-      <c r="L181" s="1">
-        <v>0</v>
-      </c>
-      <c r="M181" s="1">
-        <v>0</v>
-      </c>
-      <c r="N181" s="1">
-        <v>0</v>
-      </c>
-      <c r="O181" s="1">
-        <v>0</v>
-      </c>
-      <c r="P181" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q181" s="1">
-        <v>0</v>
-      </c>
-      <c r="R181" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="S181" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="V181" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B182" s="1">
-        <v>0</v>
-      </c>
-      <c r="C182" s="1">
-        <v>0</v>
-      </c>
-      <c r="D182" s="1">
-        <v>0</v>
-      </c>
-      <c r="E182" s="1">
-        <v>0</v>
-      </c>
-      <c r="F182" s="1">
-        <v>0</v>
-      </c>
-      <c r="G182" s="1">
-        <v>0</v>
-      </c>
-      <c r="H182" s="1">
-        <v>0</v>
-      </c>
-      <c r="I182" s="1">
-        <v>0</v>
-      </c>
-      <c r="J182" s="1">
-        <v>0</v>
-      </c>
-      <c r="K182" s="1">
-        <v>0</v>
-      </c>
-      <c r="L182" s="1">
-        <v>0</v>
-      </c>
-      <c r="M182" s="1">
-        <v>0</v>
-      </c>
-      <c r="N182" s="1">
-        <v>0</v>
-      </c>
-      <c r="O182" s="1">
-        <v>0</v>
-      </c>
-      <c r="P182" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q182" s="1">
-        <v>0</v>
-      </c>
-      <c r="R182" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="S182" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="V182" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
